--- a/NRI_STLF_Data/WeatherData/T_tabriz/T_tabriz90.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_tabriz/T_tabriz90.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NRI\last data 95.6.9\WeatherData\T_tabriz\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15135" windowHeight="8070"/>
   </bookViews>
@@ -58,11 +63,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -99,6 +104,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -147,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,7 +190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,12 +402,12 @@
   <dimension ref="A1:AA365"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="F335" sqref="F1:F1048576"/>
+      <selection activeCell="E337" sqref="E337"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>90</v>
       </c>
@@ -479,7 +487,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>90</v>
       </c>
@@ -559,7 +567,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>90</v>
       </c>
@@ -642,7 +650,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>90</v>
       </c>
@@ -722,7 +730,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>90</v>
       </c>
@@ -802,7 +810,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>90</v>
       </c>
@@ -879,7 +887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>90</v>
       </c>
@@ -944,7 +952,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>90</v>
       </c>
@@ -1021,7 +1029,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>90</v>
       </c>
@@ -1098,7 +1106,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>90</v>
       </c>
@@ -1175,7 +1183,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>90</v>
       </c>
@@ -1252,7 +1260,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>90</v>
       </c>
@@ -1329,7 +1337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>90</v>
       </c>
@@ -1406,7 +1414,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>90</v>
       </c>
@@ -1483,7 +1491,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>90</v>
       </c>
@@ -1566,7 +1574,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>90</v>
       </c>
@@ -1646,7 +1654,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>90</v>
       </c>
@@ -1729,7 +1737,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>90</v>
       </c>
@@ -1809,7 +1817,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>90</v>
       </c>
@@ -1892,7 +1900,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>90</v>
       </c>
@@ -1972,7 +1980,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>90</v>
       </c>
@@ -2052,7 +2060,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>90</v>
       </c>
@@ -2135,7 +2143,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>90</v>
       </c>
@@ -2218,7 +2226,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>90</v>
       </c>
@@ -2301,7 +2309,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>90</v>
       </c>
@@ -2378,7 +2386,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>90</v>
       </c>
@@ -2455,7 +2463,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>90</v>
       </c>
@@ -2535,7 +2543,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>90</v>
       </c>
@@ -2615,7 +2623,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>90</v>
       </c>
@@ -2695,7 +2703,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>90</v>
       </c>
@@ -2772,7 +2780,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>90</v>
       </c>
@@ -2855,7 +2863,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>90</v>
       </c>
@@ -2938,7 +2946,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>90</v>
       </c>
@@ -3018,7 +3026,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>90</v>
       </c>
@@ -3098,7 +3106,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>90</v>
       </c>
@@ -3175,7 +3183,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>90</v>
       </c>
@@ -3252,7 +3260,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>90</v>
       </c>
@@ -3332,7 +3340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>90</v>
       </c>
@@ -3412,7 +3420,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>90</v>
       </c>
@@ -3489,7 +3497,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>90</v>
       </c>
@@ -3569,7 +3577,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>90</v>
       </c>
@@ -3649,7 +3657,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>90</v>
       </c>
@@ -3729,7 +3737,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>90</v>
       </c>
@@ -3809,7 +3817,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>90</v>
       </c>
@@ -3889,7 +3897,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>90</v>
       </c>
@@ -3966,7 +3974,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>90</v>
       </c>
@@ -4049,7 +4057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>90</v>
       </c>
@@ -4129,7 +4137,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>90</v>
       </c>
@@ -4209,7 +4217,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>90</v>
       </c>
@@ -4289,7 +4297,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>90</v>
       </c>
@@ -4366,7 +4374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>90</v>
       </c>
@@ -4443,7 +4451,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>90</v>
       </c>
@@ -4520,7 +4528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>90</v>
       </c>
@@ -4600,7 +4608,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>90</v>
       </c>
@@ -4680,7 +4688,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>90</v>
       </c>
@@ -4760,7 +4768,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>90</v>
       </c>
@@ -4837,7 +4845,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>90</v>
       </c>
@@ -4917,7 +4925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>90</v>
       </c>
@@ -4994,7 +5002,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>90</v>
       </c>
@@ -5074,7 +5082,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>90</v>
       </c>
@@ -5157,7 +5165,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>90</v>
       </c>
@@ -5234,7 +5242,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>90</v>
       </c>
@@ -5314,7 +5322,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>90</v>
       </c>
@@ -5391,7 +5399,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>90</v>
       </c>
@@ -5471,7 +5479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>90</v>
       </c>
@@ -5548,7 +5556,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>90</v>
       </c>
@@ -5628,7 +5636,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>90</v>
       </c>
@@ -5711,7 +5719,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>90</v>
       </c>
@@ -5791,7 +5799,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>90</v>
       </c>
@@ -5871,7 +5879,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>90</v>
       </c>
@@ -5954,7 +5962,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>90</v>
       </c>
@@ -6034,7 +6042,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>90</v>
       </c>
@@ -6111,7 +6119,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>90</v>
       </c>
@@ -6188,7 +6196,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>90</v>
       </c>
@@ -6268,7 +6276,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>90</v>
       </c>
@@ -6345,7 +6353,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>90</v>
       </c>
@@ -6425,7 +6433,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>90</v>
       </c>
@@ -6502,7 +6510,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>90</v>
       </c>
@@ -6582,7 +6590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>90</v>
       </c>
@@ -6659,7 +6667,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>90</v>
       </c>
@@ -6742,7 +6750,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>90</v>
       </c>
@@ -6825,7 +6833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>90</v>
       </c>
@@ -6905,7 +6913,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>90</v>
       </c>
@@ -6985,7 +6993,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>90</v>
       </c>
@@ -7062,7 +7070,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>90</v>
       </c>
@@ -7139,7 +7147,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>90</v>
       </c>
@@ -7219,7 +7227,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>90</v>
       </c>
@@ -7296,7 +7304,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>90</v>
       </c>
@@ -7373,7 +7381,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>90</v>
       </c>
@@ -7450,7 +7458,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>90</v>
       </c>
@@ -7527,7 +7535,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7604,7 +7612,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7681,7 +7689,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>90</v>
       </c>
@@ -7758,7 +7766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>90</v>
       </c>
@@ -7838,7 +7846,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>90</v>
       </c>
@@ -7915,7 +7923,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>90</v>
       </c>
@@ -7992,7 +8000,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>90</v>
       </c>
@@ -8069,7 +8077,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>90</v>
       </c>
@@ -8149,7 +8157,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>90</v>
       </c>
@@ -8226,7 +8234,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>90</v>
       </c>
@@ -8303,7 +8311,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>90</v>
       </c>
@@ -8380,7 +8388,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>90</v>
       </c>
@@ -8457,7 +8465,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>90</v>
       </c>
@@ -8534,7 +8542,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>90</v>
       </c>
@@ -8614,7 +8622,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>90</v>
       </c>
@@ -8691,7 +8699,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>90</v>
       </c>
@@ -8768,7 +8776,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>90</v>
       </c>
@@ -8845,7 +8853,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>90</v>
       </c>
@@ -8922,7 +8930,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>90</v>
       </c>
@@ -8999,7 +9007,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>90</v>
       </c>
@@ -9079,7 +9087,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>90</v>
       </c>
@@ -9159,7 +9167,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>90</v>
       </c>
@@ -9239,7 +9247,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>90</v>
       </c>
@@ -9316,7 +9324,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>90</v>
       </c>
@@ -9396,7 +9404,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>90</v>
       </c>
@@ -9476,7 +9484,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>90</v>
       </c>
@@ -9556,7 +9564,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>90</v>
       </c>
@@ -9636,7 +9644,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>90</v>
       </c>
@@ -9719,7 +9727,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>90</v>
       </c>
@@ -9802,7 +9810,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>90</v>
       </c>
@@ -9882,7 +9890,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>90</v>
       </c>
@@ -9965,7 +9973,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>90</v>
       </c>
@@ -10045,7 +10053,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>90</v>
       </c>
@@ -10128,7 +10136,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>90</v>
       </c>
@@ -10208,7 +10216,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>90</v>
       </c>
@@ -10291,7 +10299,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>90</v>
       </c>
@@ -10374,7 +10382,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>90</v>
       </c>
@@ -10454,7 +10462,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>90</v>
       </c>
@@ -10534,7 +10542,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>90</v>
       </c>
@@ -10611,7 +10619,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>90</v>
       </c>
@@ -10688,7 +10696,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>90</v>
       </c>
@@ -10756,7 +10764,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>90</v>
       </c>
@@ -10833,7 +10841,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>90</v>
       </c>
@@ -10910,7 +10918,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>90</v>
       </c>
@@ -10987,7 +10995,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>90</v>
       </c>
@@ -11064,7 +11072,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>90</v>
       </c>
@@ -11141,7 +11149,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>90</v>
       </c>
@@ -11218,7 +11226,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>90</v>
       </c>
@@ -11295,7 +11303,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>90</v>
       </c>
@@ -11375,7 +11383,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>90</v>
       </c>
@@ -11455,7 +11463,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>90</v>
       </c>
@@ -11535,7 +11543,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="142" spans="1:27">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>90</v>
       </c>
@@ -11615,7 +11623,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>90</v>
       </c>
@@ -11692,7 +11700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>90</v>
       </c>
@@ -11769,7 +11777,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>90</v>
       </c>
@@ -11849,7 +11857,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>90</v>
       </c>
@@ -11932,7 +11940,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:27">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>90</v>
       </c>
@@ -12012,7 +12020,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>90</v>
       </c>
@@ -12089,7 +12097,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:27">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>90</v>
       </c>
@@ -12166,7 +12174,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="150" spans="1:27">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>90</v>
       </c>
@@ -12243,7 +12251,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>90</v>
       </c>
@@ -12320,7 +12328,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="152" spans="1:27">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>90</v>
       </c>
@@ -12397,7 +12405,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="153" spans="1:27">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>90</v>
       </c>
@@ -12474,7 +12482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:27">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>90</v>
       </c>
@@ -12554,7 +12562,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="155" spans="1:27">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>90</v>
       </c>
@@ -12631,7 +12639,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="156" spans="1:27">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>90</v>
       </c>
@@ -12711,7 +12719,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157" spans="1:27">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>90</v>
       </c>
@@ -12791,7 +12799,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="158" spans="1:27">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>90</v>
       </c>
@@ -12874,7 +12882,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="159" spans="1:27">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>90</v>
       </c>
@@ -12957,7 +12965,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="160" spans="1:27">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>90</v>
       </c>
@@ -13040,7 +13048,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="161" spans="1:27">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>90</v>
       </c>
@@ -13123,7 +13131,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="162" spans="1:27">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>90</v>
       </c>
@@ -13206,7 +13214,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="163" spans="1:27">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>90</v>
       </c>
@@ -13271,7 +13279,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="164" spans="1:27">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>90</v>
       </c>
@@ -13336,7 +13344,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="165" spans="1:27">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>90</v>
       </c>
@@ -13413,7 +13421,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="166" spans="1:27">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>90</v>
       </c>
@@ -13493,7 +13501,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="167" spans="1:27">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>90</v>
       </c>
@@ -13573,7 +13581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="168" spans="1:27">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>90</v>
       </c>
@@ -13638,7 +13646,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="169" spans="1:27">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>90</v>
       </c>
@@ -13715,7 +13723,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="170" spans="1:27">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>90</v>
       </c>
@@ -13792,7 +13800,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="171" spans="1:27">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>90</v>
       </c>
@@ -13869,7 +13877,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>90</v>
       </c>
@@ -13946,7 +13954,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="173" spans="1:27">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>90</v>
       </c>
@@ -14011,7 +14019,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="174" spans="1:27">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>90</v>
       </c>
@@ -14088,7 +14096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:27">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>90</v>
       </c>
@@ -14165,7 +14173,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="176" spans="1:27">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>90</v>
       </c>
@@ -14242,7 +14250,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="177" spans="1:27">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>90</v>
       </c>
@@ -14319,7 +14327,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="178" spans="1:27">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>90</v>
       </c>
@@ -14396,7 +14404,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="179" spans="1:27">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>90</v>
       </c>
@@ -14473,7 +14481,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="180" spans="1:27">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>90</v>
       </c>
@@ -14550,7 +14558,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="181" spans="1:27">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>90</v>
       </c>
@@ -14627,7 +14635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:27">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>90</v>
       </c>
@@ -14704,7 +14712,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="183" spans="1:27">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>90</v>
       </c>
@@ -14781,7 +14789,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="184" spans="1:27">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>90</v>
       </c>
@@ -14858,7 +14866,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="185" spans="1:27">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>90</v>
       </c>
@@ -14938,7 +14946,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:27">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>90</v>
       </c>
@@ -15015,7 +15023,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:27">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>90</v>
       </c>
@@ -15092,7 +15100,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="188" spans="1:27">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>90</v>
       </c>
@@ -15172,7 +15180,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="189" spans="1:27">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>90</v>
       </c>
@@ -15252,7 +15260,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="190" spans="1:27">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>90</v>
       </c>
@@ -15332,7 +15340,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="191" spans="1:27">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>90</v>
       </c>
@@ -15412,7 +15420,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="192" spans="1:27">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>90</v>
       </c>
@@ -15492,7 +15500,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="193" spans="1:27">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>90</v>
       </c>
@@ -15572,7 +15580,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="194" spans="1:27">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>90</v>
       </c>
@@ -15652,7 +15660,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="195" spans="1:27">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>90</v>
       </c>
@@ -15735,7 +15743,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="196" spans="1:27">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>90</v>
       </c>
@@ -15812,7 +15820,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="197" spans="1:27">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>90</v>
       </c>
@@ -15889,7 +15897,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="198" spans="1:27">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>90</v>
       </c>
@@ -15966,7 +15974,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="199" spans="1:27">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>90</v>
       </c>
@@ -16043,7 +16051,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="200" spans="1:27">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>90</v>
       </c>
@@ -16108,7 +16116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:27">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>90</v>
       </c>
@@ -16185,7 +16193,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="202" spans="1:27">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>90</v>
       </c>
@@ -16262,7 +16270,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="203" spans="1:27">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>90</v>
       </c>
@@ -16339,7 +16347,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="204" spans="1:27">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>90</v>
       </c>
@@ -16416,7 +16424,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="205" spans="1:27">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>90</v>
       </c>
@@ -16493,7 +16501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:27">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>90</v>
       </c>
@@ -16570,7 +16578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="207" spans="1:27">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>90</v>
       </c>
@@ -16650,7 +16658,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="208" spans="1:27">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>90</v>
       </c>
@@ -16727,7 +16735,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>90</v>
       </c>
@@ -16810,7 +16818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="1:27">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>90</v>
       </c>
@@ -16887,7 +16895,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="211" spans="1:27">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>90</v>
       </c>
@@ -16967,7 +16975,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="212" spans="1:27">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>90</v>
       </c>
@@ -17044,7 +17052,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="213" spans="1:27">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>90</v>
       </c>
@@ -17127,7 +17135,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="214" spans="1:27">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>90</v>
       </c>
@@ -17207,7 +17215,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="215" spans="1:27">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>90</v>
       </c>
@@ -17284,7 +17292,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="216" spans="1:27">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>90</v>
       </c>
@@ -17361,7 +17369,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="217" spans="1:27">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>90</v>
       </c>
@@ -17438,7 +17446,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="218" spans="1:27">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>90</v>
       </c>
@@ -17503,7 +17511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:27">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>90</v>
       </c>
@@ -17583,7 +17591,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="220" spans="1:27">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>90</v>
       </c>
@@ -17663,7 +17671,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="1:27">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>90</v>
       </c>
@@ -17743,7 +17751,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="222" spans="1:27">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>90</v>
       </c>
@@ -17823,7 +17831,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:27">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>90</v>
       </c>
@@ -17903,7 +17911,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="224" spans="1:27">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>90</v>
       </c>
@@ -17983,7 +17991,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="225" spans="1:27">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>90</v>
       </c>
@@ -18060,7 +18068,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="226" spans="1:27">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>90</v>
       </c>
@@ -18137,7 +18145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:27">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>90</v>
       </c>
@@ -18214,7 +18222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:27">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>90</v>
       </c>
@@ -18291,7 +18299,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="229" spans="1:27">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>90</v>
       </c>
@@ -18371,7 +18379,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="230" spans="1:27">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>90</v>
       </c>
@@ -18451,7 +18459,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="231" spans="1:27">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>90</v>
       </c>
@@ -18531,7 +18539,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="232" spans="1:27">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>90</v>
       </c>
@@ -18611,7 +18619,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="233" spans="1:27">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>90</v>
       </c>
@@ -18694,7 +18702,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="234" spans="1:27">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>90</v>
       </c>
@@ -18771,7 +18779,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="235" spans="1:27">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>90</v>
       </c>
@@ -18848,7 +18856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="236" spans="1:27">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>90</v>
       </c>
@@ -18925,7 +18933,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="237" spans="1:27">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>90</v>
       </c>
@@ -19005,7 +19013,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="238" spans="1:27">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>90</v>
       </c>
@@ -19085,7 +19093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:27">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>90</v>
       </c>
@@ -19165,7 +19173,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="240" spans="1:27">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>90</v>
       </c>
@@ -19245,7 +19253,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>90</v>
       </c>
@@ -19325,7 +19333,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="242" spans="1:27">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>90</v>
       </c>
@@ -19405,7 +19413,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="243" spans="1:27">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>90</v>
       </c>
@@ -19485,7 +19493,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="244" spans="1:27">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>90</v>
       </c>
@@ -19565,7 +19573,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="245" spans="1:27">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>90</v>
       </c>
@@ -19645,7 +19653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:27">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>90</v>
       </c>
@@ -19725,7 +19733,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="247" spans="1:27">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>90</v>
       </c>
@@ -19802,7 +19810,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="248" spans="1:27">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>90</v>
       </c>
@@ -19879,7 +19887,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="249" spans="1:27">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>90</v>
       </c>
@@ -19959,7 +19967,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="250" spans="1:27">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>90</v>
       </c>
@@ -20039,7 +20047,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="251" spans="1:27">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>90</v>
       </c>
@@ -20116,7 +20124,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="252" spans="1:27">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>90</v>
       </c>
@@ -20193,7 +20201,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="253" spans="1:27">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>90</v>
       </c>
@@ -20270,7 +20278,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="254" spans="1:27">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>90</v>
       </c>
@@ -20347,7 +20355,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="255" spans="1:27">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>90</v>
       </c>
@@ -20424,7 +20432,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="256" spans="1:27">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>90</v>
       </c>
@@ -20504,7 +20512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:27">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>90</v>
       </c>
@@ -20581,7 +20589,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="258" spans="1:27">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>90</v>
       </c>
@@ -20658,7 +20666,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="259" spans="1:27">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>90</v>
       </c>
@@ -20735,7 +20743,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="260" spans="1:27">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>90</v>
       </c>
@@ -20812,7 +20820,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="261" spans="1:27">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>90</v>
       </c>
@@ -20889,7 +20897,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="262" spans="1:27">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>90</v>
       </c>
@@ -20966,7 +20974,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="263" spans="1:27">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>90</v>
       </c>
@@ -21043,7 +21051,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="264" spans="1:27">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>90</v>
       </c>
@@ -21120,7 +21128,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="265" spans="1:27">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>90</v>
       </c>
@@ -21200,7 +21208,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="266" spans="1:27">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>90</v>
       </c>
@@ -21277,7 +21285,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="267" spans="1:27">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>90</v>
       </c>
@@ -21354,7 +21362,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="268" spans="1:27">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>90</v>
       </c>
@@ -21431,7 +21439,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="269" spans="1:27">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>90</v>
       </c>
@@ -21511,7 +21519,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="270" spans="1:27">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>90</v>
       </c>
@@ -21588,7 +21596,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="271" spans="1:27">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>90</v>
       </c>
@@ -21665,7 +21673,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="272" spans="1:27">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>90</v>
       </c>
@@ -21745,7 +21753,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="273" spans="1:27">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>90</v>
       </c>
@@ -21825,7 +21833,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="274" spans="1:27">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>90</v>
       </c>
@@ -21905,7 +21913,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="275" spans="1:27">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>90</v>
       </c>
@@ -21985,7 +21993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="276" spans="1:27">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>90</v>
       </c>
@@ -22065,7 +22073,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="277" spans="1:27">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>90</v>
       </c>
@@ -22145,7 +22153,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="278" spans="1:27">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>90</v>
       </c>
@@ -22222,7 +22230,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="279" spans="1:27">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>90</v>
       </c>
@@ -22302,7 +22310,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="280" spans="1:27">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>90</v>
       </c>
@@ -22382,7 +22390,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="281" spans="1:27">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>90</v>
       </c>
@@ -22462,7 +22470,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="282" spans="1:27">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>90</v>
       </c>
@@ -22539,7 +22547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:27">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>90</v>
       </c>
@@ -22616,7 +22624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:27">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>90</v>
       </c>
@@ -22693,7 +22701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="285" spans="1:27">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>90</v>
       </c>
@@ -22770,7 +22778,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="286" spans="1:27">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>90</v>
       </c>
@@ -22850,7 +22858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="287" spans="1:27">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>90</v>
       </c>
@@ -22930,7 +22938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:27">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>90</v>
       </c>
@@ -23010,7 +23018,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="289" spans="1:27">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>90</v>
       </c>
@@ -23090,7 +23098,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="290" spans="1:27">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>90</v>
       </c>
@@ -23155,7 +23163,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="291" spans="1:27">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>90</v>
       </c>
@@ -23232,7 +23240,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="292" spans="1:27">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>90</v>
       </c>
@@ -23312,7 +23320,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="293" spans="1:27">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>90</v>
       </c>
@@ -23389,7 +23397,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="294" spans="1:27">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>90</v>
       </c>
@@ -23469,7 +23477,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="295" spans="1:27">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>90</v>
       </c>
@@ -23549,7 +23557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:27">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>90</v>
       </c>
@@ -23626,7 +23634,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="297" spans="1:27">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>90</v>
       </c>
@@ -23706,7 +23714,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="298" spans="1:27">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>90</v>
       </c>
@@ -23786,7 +23794,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="299" spans="1:27">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>90</v>
       </c>
@@ -23866,7 +23874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="300" spans="1:27">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>90</v>
       </c>
@@ -23943,7 +23951,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="301" spans="1:27">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>90</v>
       </c>
@@ -24020,7 +24028,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="302" spans="1:27">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>90</v>
       </c>
@@ -24097,7 +24105,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="303" spans="1:27">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>90</v>
       </c>
@@ -24174,7 +24182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="304" spans="1:27">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>90</v>
       </c>
@@ -24251,7 +24259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="305" spans="1:27">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>90</v>
       </c>
@@ -24331,7 +24339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="306" spans="1:27">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>90</v>
       </c>
@@ -24411,7 +24419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:27">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>90</v>
       </c>
@@ -24491,7 +24499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="1:27">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>90</v>
       </c>
@@ -24568,7 +24576,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="309" spans="1:27">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>90</v>
       </c>
@@ -24645,7 +24653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:27">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>90</v>
       </c>
@@ -24722,7 +24730,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="311" spans="1:27">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>90</v>
       </c>
@@ -24796,7 +24804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="312" spans="1:27">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>90</v>
       </c>
@@ -24873,7 +24881,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="313" spans="1:27">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>90</v>
       </c>
@@ -24953,7 +24961,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="314" spans="1:27">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>90</v>
       </c>
@@ -25036,7 +25044,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="315" spans="1:27">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>90</v>
       </c>
@@ -25116,7 +25124,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="316" spans="1:27">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>90</v>
       </c>
@@ -25193,7 +25201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="317" spans="1:27">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>90</v>
       </c>
@@ -25273,7 +25281,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="318" spans="1:27">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>90</v>
       </c>
@@ -25353,7 +25361,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="319" spans="1:27">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>90</v>
       </c>
@@ -25436,7 +25444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="320" spans="1:27">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>90</v>
       </c>
@@ -25513,7 +25521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="321" spans="1:27">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>90</v>
       </c>
@@ -25578,7 +25586,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="322" spans="1:27">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>90</v>
       </c>
@@ -25643,7 +25651,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="323" spans="1:27">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>90</v>
       </c>
@@ -25720,7 +25728,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="324" spans="1:27">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>90</v>
       </c>
@@ -25800,7 +25808,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="325" spans="1:27">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>90</v>
       </c>
@@ -25883,7 +25891,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="326" spans="1:27">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>90</v>
       </c>
@@ -25960,7 +25968,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="327" spans="1:27">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>90</v>
       </c>
@@ -26037,7 +26045,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="328" spans="1:27">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>90</v>
       </c>
@@ -26117,7 +26125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:27">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>90</v>
       </c>
@@ -26194,7 +26202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="330" spans="1:27">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>90</v>
       </c>
@@ -26259,7 +26267,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="331" spans="1:27">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>90</v>
       </c>
@@ -26336,7 +26344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:27">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>90</v>
       </c>
@@ -26413,7 +26421,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="333" spans="1:27">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>90</v>
       </c>
@@ -26496,7 +26504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:27">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>90</v>
       </c>
@@ -26576,7 +26584,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="335" spans="1:27">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>90</v>
       </c>
@@ -26653,7 +26661,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="336" spans="1:27">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>90</v>
       </c>
@@ -26736,7 +26744,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="337" spans="1:27">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>90</v>
       </c>
@@ -26813,7 +26821,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="338" spans="1:27">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>90</v>
       </c>
@@ -26890,7 +26898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="339" spans="1:27">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>90</v>
       </c>
@@ -26967,7 +26975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="1:27">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>90</v>
       </c>
@@ -27044,7 +27052,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="341" spans="1:27">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>90</v>
       </c>
@@ -27121,7 +27129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:27">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>90</v>
       </c>
@@ -27198,7 +27206,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="343" spans="1:27">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>90</v>
       </c>
@@ -27275,7 +27283,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="344" spans="1:27">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>90</v>
       </c>
@@ -27352,7 +27360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="345" spans="1:27">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>90</v>
       </c>
@@ -27429,7 +27437,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="346" spans="1:27">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>90</v>
       </c>
@@ -27512,7 +27520,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="347" spans="1:27">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>90</v>
       </c>
@@ -27595,7 +27603,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="348" spans="1:27">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>90</v>
       </c>
@@ -27675,7 +27683,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="349" spans="1:27">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>90</v>
       </c>
@@ -27758,7 +27766,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="350" spans="1:27">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>90</v>
       </c>
@@ -27841,7 +27849,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="351" spans="1:27">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>90</v>
       </c>
@@ -27924,7 +27932,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="352" spans="1:27">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>90</v>
       </c>
@@ -28001,7 +28009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:27">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>90</v>
       </c>
@@ -28081,7 +28089,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="354" spans="1:27">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>90</v>
       </c>
@@ -28158,7 +28166,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="355" spans="1:27">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>90</v>
       </c>
@@ -28238,7 +28246,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="356" spans="1:27">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>90</v>
       </c>
@@ -28318,7 +28326,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="357" spans="1:27">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>90</v>
       </c>
@@ -28395,7 +28403,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="358" spans="1:27">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>90</v>
       </c>
@@ -28475,7 +28483,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="359" spans="1:27">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>90</v>
       </c>
@@ -28552,7 +28560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360" spans="1:27">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>90</v>
       </c>
@@ -28632,7 +28640,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="361" spans="1:27">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>90</v>
       </c>
@@ -28712,7 +28720,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="362" spans="1:27">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>90</v>
       </c>
@@ -28795,7 +28803,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="363" spans="1:27">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>90</v>
       </c>
@@ -28878,7 +28886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="364" spans="1:27">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>90</v>
       </c>
@@ -28955,7 +28963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="365" spans="1:27">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>90</v>
       </c>
@@ -29031,7 +29039,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29043,7 +29051,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
